--- a/sim/data/transações.xlsx
+++ b/sim/data/transações.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\av1_avancada\sim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B9BF87-40F4-4702-B63F-812687BCD29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC9964F2-61CA-410C-B7B8-0DE7717503B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18930" yWindow="1080" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18150" yWindow="2595" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>conta1</t>
   </si>
@@ -50,9 +51,844 @@
 </sst>
 </file>
 
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="42">
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="A2:F2"/>
@@ -83,23 +919,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.697757983537E18</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.6977579835369999E+18</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>3.25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>53.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.69776624497E18</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E3" t="n">
         <v>100.0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
         <v>53.25</v>
       </c>
     </row>
